--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_AnhTruc_060525.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_AnhTruc_060525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438B82B5-B14C-495B-81E0-84250167DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC33267-6F53-43F2-B8AF-54E7D3B5254D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Hà Nội, ngày 06 tháng 05 năm 2025</t>
+  </si>
+  <si>
+    <t>TG102E-4G</t>
   </si>
 </sst>
 </file>
@@ -561,6 +564,45 @@
     <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,45 +623,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1007,69 +1010,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="47" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
@@ -1083,12 +1086,12 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="26"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1096,12 +1099,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1109,12 +1112,12 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1122,12 +1125,12 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1234,7 +1237,7 @@
       <c r="B15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="36">
         <v>861881053437159</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -1260,7 +1263,7 @@
       <c r="B16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="36">
         <v>862205051159566</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -1286,7 +1289,7 @@
       <c r="B17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="36">
         <v>861881054171229</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -1312,7 +1315,7 @@
       <c r="B18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="36">
         <v>862205051201129</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -1338,7 +1341,7 @@
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="36">
         <v>862205051194050</v>
       </c>
       <c r="D19" s="30"/>
@@ -1362,7 +1365,7 @@
       <c r="B20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="36">
         <v>861881054171930</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -1488,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>50</v>
@@ -1497,7 +1500,7 @@
       <c r="E25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="53"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="33" t="s">
         <v>46</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="E26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="33" t="s">
         <v>46</v>
       </c>
@@ -1545,7 +1548,7 @@
       <c r="E27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="33" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1565,7 @@
       <c r="B28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="36">
         <v>202410050835055</v>
       </c>
       <c r="D28" s="30"/>
@@ -1586,7 +1589,7 @@
       <c r="B29" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="30"/>
@@ -1624,26 +1627,26 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
@@ -1690,19 +1693,19 @@
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1716,17 +1719,12 @@
       <c r="I38" s="20"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B40:C40"/>
@@ -1738,6 +1736,11 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
